--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>930818.3177531534</v>
+        <v>956890.3913816916</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17281035.08926389</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7301897.709555272</v>
+        <v>7344397.932574185</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>361.2296219950568</v>
       </c>
       <c r="C2" t="n">
-        <v>361.0423675600758</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>98.36200710857226</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>17.9343400668663</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>102.5070398861433</v>
       </c>
       <c r="X5" t="n">
-        <v>303.8392857606904</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
-        <v>5.08148512872441</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>328.0765718005094</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>200.895087647418</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245677</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>229.7552611298611</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930767001</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>98.73120706589829</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>71.43430199953282</v>
       </c>
       <c r="T14" t="n">
-        <v>206.8981232563545</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>190.9208213480133</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>32.6707771990715</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2002,13 +2002,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>137.2470510215438</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978575</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>155.202295525158</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>129.7139627068454</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>214.3693806674601</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.55329631630764</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>156.3113891517335</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>234.1486472602388</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>94.21878984361656</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.4289015982197</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>239.8015903253614</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791304972</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>216.023743865588</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3901,7 +3901,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>3.42339212608458</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>2.008513159455165</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>18.64034175572516</v>
+        <v>18.64034175572607</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.14416275345361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>165.2106365932274</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>131.1085678170548</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>99.23918703190337</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>69.50484623060261</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381415</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299069</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257663</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.89103401072</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194557</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.171933067596</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1720.949630384612</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1358.332680318439</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1357.517629769876</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>938.375166349187</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>530.0890426488404</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400193</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067199</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245375</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>951.1357312073217</v>
+        <v>896.1738577571457</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>723.6121462403706</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>557.7341534418933</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>387.9761496926305</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>211.2690956543867</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.6778206802144</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>320.43627525135</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>738.6461570193111</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1640.388827357869</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.89103401072</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.89103401072</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2262.473212716092</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2103.231844014088</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1857.352397592544</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1578.919396845649</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1578.919396845649</v>
       </c>
       <c r="W4" t="n">
-        <v>951.1357312073217</v>
+        <v>1560.803901828612</v>
       </c>
       <c r="X4" t="n">
-        <v>951.1357312073217</v>
+        <v>1315.412147162025</v>
       </c>
       <c r="Y4" t="n">
-        <v>951.1357312073217</v>
+        <v>1087.992476476133</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>958.9147199317615</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X5" t="n">
-        <v>985.4196060362078</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1738863762653</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.2298803720686</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>433.2298803720686</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>433.2298803720686</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>433.2298803720686</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.2298803720686</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.3324154422651</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>524.1899426256883</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>492.3205618405369</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>462.5862210392361</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>34.71879144844384</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>34.71879144844384</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.71879144844384</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>34.71879144844384</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>464.3638356229363</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>707.4954193201502</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>707.4954193201502</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>707.4954193201502</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>707.4954193201502</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>707.4954193201502</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1137.140463494643</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1566.785507669135</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1735.939572422192</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1735.939572422192</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="T8" t="n">
-        <v>1735.939572422192</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="U8" t="n">
-        <v>1735.939572422192</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>1735.939572422192</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>1735.124521873629</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>1720.022462493344</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y8" t="n">
-        <v>1388.631985927173</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.8905364397366</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>434.4340752763789</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>339.3437864229322</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>245.2233717498859</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.8395333660475</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>76.45444363223137</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>34.71879144844384</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.78246460890144</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>385.3407895751138</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>814.9858337496063</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1151.14073065842</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1151.14073065842</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1151.14073065842</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1151.14073065842</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1151.14073065842</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.785774832913</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.958552927253</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1634.503115375636</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1504.324471706237</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.987924706206</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.870406768205</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>943.5476525013989</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>788.680216740279</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>662.1944375194997</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.776952060325</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>941.2152405435501</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>775.3372477450728</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>605.5792439958101</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.8721899575663</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>263.280914983394</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>123.3787406737685</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>34.71879144844384</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>34.71879144844384</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>34.71879144844384</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.9286732164049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>882.5737173908974</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1312.21876156539</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1731.888010791171</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1735.939572422192</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1735.939572422192</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1735.939572422192</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.939572422192</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.939572422192</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.939572422192</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1735.939572422192</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1735.939572422192</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1533.015241465204</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1305.595570779312</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111516</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.3248695203471</v>
+        <v>1084.662814845622</v>
       </c>
       <c r="C13" t="n">
-        <v>671.763158003572</v>
+        <v>912.1011033288469</v>
       </c>
       <c r="D13" t="n">
-        <v>671.763158003572</v>
+        <v>746.2231105303697</v>
       </c>
       <c r="E13" t="n">
-        <v>502.0051542543092</v>
+        <v>576.4651067811069</v>
       </c>
       <c r="F13" t="n">
-        <v>325.2981002160654</v>
+        <v>399.7580527428631</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160654</v>
+        <v>234.1667777686907</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111516</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2592.249273303531</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2346.369826881986</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2067.936826135091</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V13" t="n">
-        <v>1780.981318005522</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.954913591813</v>
+        <v>1749.292858917088</v>
       </c>
       <c r="X13" t="n">
-        <v>1263.563158925226</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1036.143488239334</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4764.64297345017</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.158956950348</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950348</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>837.3544329777441</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111506</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1256.592722382623</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>1029.173051696731</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.798049006191</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580463</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412712</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935312</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657332</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405574</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420801</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928173</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272077</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>2029.315500142507</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728799</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062211</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.47767037632</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085203</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6385,22 +6385,22 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066056</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745667</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
         <v>2718.920450173579</v>
@@ -6409,22 +6409,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
         <v>1144.575496066698</v>
@@ -6473,13 +6473,13 @@
         <v>3603.973621145286</v>
       </c>
       <c r="N29" t="n">
-        <v>3603.973621145286</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.973621145286</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6658,13 +6658,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903951</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736201</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751428</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>462.79833832588</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876362</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
         <v>190.9207894961043</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7111,34 +7111,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2561.921559670327</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2316.042113248783</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2037.609112501888</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1750.653604372318</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917136</v>
+        <v>917.6259669185115</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932363</v>
+        <v>751.7479741200341</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>581.9899703707714</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057297</v>
+        <v>405.2829163325276</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>239.6916413583553</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.60800300514</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V40" t="n">
-        <v>1952.384174393664</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W40" t="n">
-        <v>1680.357769979955</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.966015313368</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.546344627476</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651788</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835211</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771586</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004225</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436387</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>405.0384966383147</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>405.0384966383147</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>405.0384966383147</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>405.0384966383147</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>405.0384966383147</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.761663117513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937635</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769884</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>671.7631580035719</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>502.0051542543092</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526434</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847296</v>
+        <v>944.8298656847305</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939373</v>
+        <v>516.9624360939382</v>
       </c>
       <c r="G44" t="n">
-        <v>115.5646047172012</v>
+        <v>115.5646047172021</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111516</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V44" t="n">
         <v>3911.240480363477</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>399.5136330486504</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>399.5136330486504</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>399.5136330486504</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>399.5136330486504</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>399.5136330486504</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1219.236799527848</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1759.975738159924</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
         <v>1759.975738159924</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>784.8119928040992</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412713</v>
+        <v>612.2502812873241</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>446.3722884888468</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>276.6142847395841</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>276.6142847395841</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111516</v>
+        <v>111.0230097654118</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
         <v>183.315661845805</v>
@@ -7810,10 +7810,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
         <v>1778.026668523459</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119685</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.84397037279</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829512</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709931</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.97275850268</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.97275850268</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320266</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>223.4729892007681</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909798</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>433.984893105548</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>245.587458280014</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>433.9848931055481</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.9848931055481</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.984893105548</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>339.550400917994</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055481</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>433.9848931055481</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055481</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>4.092486495980438</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10121,16 +10121,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P29" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>309.6062697457082</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328638</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>267.598511255491</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>185.1957776566213</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.446659489829159</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>58.91774794908501</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>11.38105307846854</v>
       </c>
       <c r="T14" t="n">
-        <v>10.96843159933726</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>52.01701577190838</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>185.1957776566203</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>33.58904338006354</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,19 +24175,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>120.4463752142677</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>69.7165723808137</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>33.58904338006376</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>35.15749310933258</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.71657238081404</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>2.220053416763576</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.446659489829308</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25597,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>44.28436272291245</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>184.783156177489</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>223.1369608195776</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.5985112554907</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>124.3589898130756</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>613151.2484542961</v>
+        <v>622176.5893045743</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>613151.2484542961</v>
+        <v>628117.050923497</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>613747.4353663683</v>
+        <v>628117.050923497</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620806.4024364294</v>
+        <v>647005.1420259139</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647005.1420259139</v>
+        <v>647005.142025914</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647005.1420259139</v>
+        <v>647005.142025914</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647005.1420259139</v>
+        <v>620806.4024364294</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>361899.4409260256</v>
+      </c>
+      <c r="C2" t="n">
         <v>361899.4409260257</v>
-      </c>
-      <c r="C2" t="n">
-        <v>361899.4409260258</v>
       </c>
       <c r="D2" t="n">
         <v>361899.4409260257</v>
@@ -26323,16 +26323,16 @@
         <v>341228.6311308815</v>
       </c>
       <c r="F2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="G2" t="n">
-        <v>341228.6311308815</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927127</v>
@@ -26347,10 +26347,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="O2" t="n">
-        <v>355628.8692927127</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="P2" t="n">
         <v>341228.6311308815</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476936</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745892</v>
       </c>
       <c r="D3" t="n">
-        <v>3009.705123906363</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>231462.0891550067</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>18633.22400329721</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256752</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393318</v>
       </c>
       <c r="L3" t="n">
-        <v>2452.20770535552</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193186.6328590328</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>181417.5324886662</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>204339.7068798894</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
         <v>78141.89423804608</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="G4" t="n">
-        <v>78141.89423804611</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="I4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904284</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804608</v>
+        <v>78141.89423804609</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696294</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>60013.88150081731</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,7 +26482,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45677.62071277335</v>
+        <v>-79206.93902729718</v>
       </c>
       <c r="C6" t="n">
-        <v>96513.67994693667</v>
+        <v>91233.79316725068</v>
       </c>
       <c r="D6" t="n">
-        <v>94536.14742141266</v>
+        <v>122423.8281047096</v>
       </c>
       <c r="E6" t="n">
-        <v>-41894.6945398188</v>
+        <v>27755.76085027676</v>
       </c>
       <c r="F6" t="n">
-        <v>189567.394615188</v>
+        <v>189490.8360603911</v>
       </c>
       <c r="G6" t="n">
-        <v>189567.3946151879</v>
+        <v>177519.30691633</v>
       </c>
       <c r="H6" t="n">
-        <v>177837.8352145801</v>
+        <v>196447.8348784948</v>
       </c>
       <c r="I6" t="n">
-        <v>196471.0592178773</v>
+        <v>196447.8348784948</v>
       </c>
       <c r="J6" t="n">
-        <v>85456.5938728872</v>
+        <v>47056.23845281952</v>
       </c>
       <c r="K6" t="n">
-        <v>196471.0592178775</v>
+        <v>171600.8980945616</v>
       </c>
       <c r="L6" t="n">
-        <v>194018.8515125218</v>
+        <v>196447.8348784947</v>
       </c>
       <c r="M6" t="n">
-        <v>3284.426358844648</v>
+        <v>61457.89026549141</v>
       </c>
       <c r="N6" t="n">
-        <v>196471.0592178775</v>
+        <v>196447.8348784947</v>
       </c>
       <c r="O6" t="n">
-        <v>196471.0592178773</v>
+        <v>189490.8360603911</v>
       </c>
       <c r="P6" t="n">
-        <v>189567.3946151879</v>
+        <v>189490.8360603911</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.97275850268</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>433.984893105548</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.97275850268</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517696</v>
       </c>
       <c r="D4" t="n">
-        <v>9.689035585443655</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>775.2148154083914</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>69.06079487080569</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.97275850268</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517696</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585443655</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083914</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.97275850268</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517696</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585443655</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083914</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>69.06079487080569</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>60.80695278500184</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>72.71868052833509</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>72.47408729303505</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>251.3718003027051</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27673,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>298.2998601569337</v>
       </c>
       <c r="X5" t="n">
-        <v>111.111753025792</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
-        <v>169.8584983691369</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.04145816404291</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.12669066283365</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>42.04274947250366</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-4.654052064960437e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.826698957709595e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.3158022709931</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.97275850268</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.97275850268</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320266</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>223.4729892007681</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>226.0938963909798</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>433.984893105548</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>245.587458280014</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>433.9848931055481</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.9848931055481</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.984893105548</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>339.550400917994</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055481</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>433.9848931055481</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055481</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>4.092486495980438</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,16 +36127,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36753,25 +36753,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960971</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,16 +36841,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P29" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,10 +37476,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165075</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>309.6062697457082</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328638</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
